--- a/biology/Botanique/Abutilon_indicum/Abutilon_indicum.xlsx
+++ b/biology/Botanique/Abutilon_indicum/Abutilon_indicum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abutilon indicum, l'Abutilon indien ou Mauve indienne, est une espèce de plantes dicotylédones de la famille des Malvaceae, sous-famille des Malvoideae, originaire des régions tropicales de l'Asie.
 Ce sont des plantes herbacées, annuelles ou vivaces, ou plus généralement des arbrisseaux lignifiés à la base, très ramifiés, à port dressé, pouvant atteindre 2,5 mètres de haut, à feuilles alternes et à fleurs jaunes solitaires. Ces plantes ont été utilisées pour leurs fibres, leurs propriétés médicinales et leur qualité ornementales. L'espèce a été introduites dans de nombreuses régions tropicales notamment en Amérique du Sud. Elle est considérée comme envahissante dans certaines îles du Pacifique.
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon World Flora Online (WFO)       (2 décembre 2021)[2] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (2 décembre 2021) :
 Abutilon albidum (Willd.) Sweet
 Abutilon album Hill
 Abutilon arborescens Medik.
@@ -552,8 +569,43 @@
 Sida indica L. (basionyme)
 Sida populifolia Lam.
 Sida vesicaria Cav.
-Liste des variétés et sous-espèces
-Selon Tropicos                                           (2 décembre 2021)[3] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Abutilon_indicum</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abutilon_indicum</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des variétés et sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (2 décembre 2021) (Attention liste brute contenant possiblement des synonymes) :
 sous-espèces
 Abutilon indicum subsp. albescens (Miq.) Borss. Waalk.
 Abutilon indicum subsp. guineense (Schumach.) Borss. Waalk.
